--- a/xlsx/_baidu_Scarborough Fair_intext.xlsx
+++ b/xlsx/_baidu_Scarborough Fair_intext.xlsx
@@ -35,7 +35,7 @@
     <t>义项</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/Scarborough%20Fair?force=1</t>
+    <t>https://baike.baidu.com/item/SCARBOROUGH%20FAIR?force=1</t>
   </si>
   <si>
     <t>共2个义项</t>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7">
